--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Day_11\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED59E49E-D6DD-4E50-B413-B29F87198F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36FEA08-64F0-4A3F-8D5E-8C74D75453AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Day_11\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dc8928f65293786/Documents/UiPath/Rencita_Day_3/Rencita_Day_11_Question_1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36FEA08-64F0-4A3F-8D5E-8C74D75453AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D36FEA08-64F0-4A3F-8D5E-8C74D75453AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E09E5B8B-54A2-4C79-8B2B-BDDC169551F7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6132" yWindow="1944" windowWidth="14304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
+  </si>
+  <si>
+    <t>OutputFileName</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -255,9 +261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +301,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -401,7 +407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,15 +560,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -610,7 +616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -622,7 +628,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -649,7 +655,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1654,12 +1667,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1696,7 +1709,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1821,7 +1834,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2829,12 +2842,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
